--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="getGoodsListByCouponId" sheetId="3" r:id="rId3"/>
     <sheet name="receiveCoupon" sheetId="4" r:id="rId4"/>
     <sheet name="buyNowCreateOrder" sheetId="5" r:id="rId5"/>
+    <sheet name="getMyStoreList" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="127">
   <si>
     <t>case_id</t>
   </si>
@@ -577,6 +578,12 @@
  "addrId": 950252,
  "memberCouponId":#mCouponId1#
 }</t>
+  </si>
+  <si>
+    <t>/store/getMyStoreList</t>
+  </si>
+  <si>
+    <t>{"usertoken":"#token#"}</t>
   </si>
 </sst>
 </file>
@@ -584,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -615,7 +622,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,9 +658,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +675,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,64 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -734,9 +741,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,7 +777,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +831,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,37 +897,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,49 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,55 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,32 +986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1022,9 +1003,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1039,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1084,10 +1091,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1096,16 +1103,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
@@ -1117,112 +1124,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,27 +1240,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1594,14 +1601,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="6" width="60.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.1296296296296" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29" style="7" customWidth="1"/>
+    <col min="6" max="6" width="60.2222222222222" style="7" customWidth="1"/>
     <col min="7" max="7" width="59.8888888888889" style="13" customWidth="1"/>
-    <col min="8" max="8" width="50.1111111111111" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.37962962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="50.1111111111111" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.37962962962963" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9">
@@ -1634,205 +1641,205 @@
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="76" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="109" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1864,11 +1871,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.4444444444444" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.8888888888889" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40.4444444444444" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44" style="7" customWidth="1"/>
     <col min="8" max="8" width="42.7777777777778" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1902,495 +1909,495 @@
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" ht="98" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="98" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="98" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="98" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="98" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="98" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="98" customHeight="1" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="98" customHeight="1" spans="1:9">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:9">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="98" customHeight="1" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="98" customHeight="1" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" ht="98" customHeight="1" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="98" customHeight="1" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="98" customHeight="1" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2424,20 +2431,20 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5555555555556" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.44444444444444" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5555555555556" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.44444444444444" style="7" customWidth="1"/>
+    <col min="5" max="5" width="33.7777777777778" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40.7777777777778" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.2222222222222" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:9">
@@ -2470,118 +2477,118 @@
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" ht="98" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="98" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2602,75 +2609,75 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="23.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.3333333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5555555555556" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40.3333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.1111111111111" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2689,386 +2696,386 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.2222222222222" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.2222222222222" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46" style="7" customWidth="1"/>
     <col min="7" max="8" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.3333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.3333333333333" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.8888888888889" style="7" customWidth="1"/>
     <col min="11" max="11" width="17.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="118" customHeight="1" spans="1:12">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K2" s="10">
         <v>2</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" ht="127" customHeight="1" spans="1:12">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="9">
         <v>1</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K3" s="10">
         <v>2</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" ht="107" customHeight="1" spans="1:12">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K4" s="10">
         <v>2</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" ht="114" customHeight="1" spans="1:12">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" ht="111" customHeight="1" spans="1:12">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" ht="111" customHeight="1" spans="1:12">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K7" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" ht="111" customHeight="1" spans="1:12">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" ht="111" customHeight="1" spans="1:12">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="9">
         <v>1</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K9" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" ht="111" customHeight="1" spans="1:12">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>109</v>
       </c>
       <c r="K10" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3086,4 +3093,87 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="27.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="30.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="27.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="28.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="98" customHeight="1" spans="1:9">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="/store/getMyStoreList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="receiveCoupon" sheetId="4" r:id="rId4"/>
     <sheet name="buyNowCreateOrder" sheetId="5" r:id="rId5"/>
     <sheet name="getMyStoreList" sheetId="6" r:id="rId6"/>
+    <sheet name="goodsReplaceList" sheetId="7" r:id="rId7"/>
+    <sheet name="data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="151">
   <si>
     <t>case_id</t>
   </si>
@@ -531,6 +533,9 @@
     <t>L0用户，使用指定商品可用优惠券，购买第三方商品，该商品不可用</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>{
  "priceId": 5510,
  "quantity": 1,
@@ -580,10 +585,109 @@
 }</t>
   </si>
   <si>
+    <t>获取本地仓列表</t>
+  </si>
+  <si>
+    <t>获取成功</t>
+  </si>
+  <si>
     <t>/store/getMyStoreList</t>
   </si>
   <si>
     <t>{"usertoken":"#token#"}</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>代下单商品列表</t>
+  </si>
+  <si>
+    <t>获取自营代下单商品列表</t>
+  </si>
+  <si>
+    <t>/goods/goodsReplaceList</t>
+  </si>
+  <si>
+    <t>{
+    "type":2,
+    "pageIndex":1,
+    "pageSize":30
+}</t>
+  </si>
+  <si>
+    <t>获取第三方代下单商品列表</t>
+  </si>
+  <si>
+    <t>{
+    "type":3,
+    "pageIndex":"1",
+    "pageSize":"30"
+}</t>
+  </si>
+  <si>
+    <t>获取云仓代下单商品列表</t>
+  </si>
+  <si>
+    <t>{
+    "type":4,
+    "pageIndex":"1",
+    "pageSize":"30"
+}</t>
+  </si>
+  <si>
+    <t>获取失败，商品类型为空</t>
+  </si>
+  <si>
+    <t>{
+    "pageIndex":"1",
+    "pageSize":"30"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 10004,
+    "msg": "参数未传或丢失：Required Integer parameter 'type' is not present"
+}</t>
+  </si>
+  <si>
+    <t>获取失败，分页数为空</t>
+  </si>
+  <si>
+    <t>{
+    "type":"4",
+    "pageSize":"30"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 10004,
+    "msg": "参数未传或丢失：Required Integer parameter 'pageIndex' is not present"
+}</t>
+  </si>
+  <si>
+    <t>获取失败，每页数量为空</t>
+  </si>
+  <si>
+    <t>{
+    "type":"4",
+    "pageIndex":"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": 10004,
+    "msg": "参数未传或丢失：Required Integer parameter 'pageSize' is not present"
+}</t>
+  </si>
+  <si>
+    <t>orderSn</t>
+  </si>
+  <si>
+    <t>realName</t>
+  </si>
+  <si>
+    <t>idNumber</t>
   </si>
 </sst>
 </file>
@@ -591,14 +695,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -636,6 +747,36 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -644,7 +785,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,101 +861,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,7 +888,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,19 +1014,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,151 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,61 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,8 +1124,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1103,16 +1214,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
@@ -1121,139 +1232,154 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1262,13 +1388,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1601,245 +1724,245 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28" style="7" customWidth="1"/>
-    <col min="5" max="5" width="29" style="7" customWidth="1"/>
-    <col min="6" max="6" width="60.2222222222222" style="7" customWidth="1"/>
-    <col min="7" max="7" width="59.8888888888889" style="13" customWidth="1"/>
-    <col min="8" max="8" width="50.1111111111111" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.37962962962963" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.1296296296296" style="12" customWidth="1"/>
+    <col min="3" max="3" width="28" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29" style="12" customWidth="1"/>
+    <col min="6" max="6" width="60.2222222222222" style="12" customWidth="1"/>
+    <col min="7" max="7" width="59.8888888888889" style="17" customWidth="1"/>
+    <col min="8" max="8" width="50.1111111111111" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.37962962962963" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="76" customHeight="1" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="109" customHeight="1" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1871,533 +1994,533 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.6666666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="38" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.4444444444444" style="7" customWidth="1"/>
-    <col min="7" max="7" width="44" style="7" customWidth="1"/>
-    <col min="8" max="8" width="42.7777777777778" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="38" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.8888888888889" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.4444444444444" style="12" customWidth="1"/>
+    <col min="7" max="7" width="44" style="12" customWidth="1"/>
+    <col min="8" max="8" width="42.7777777777778" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" ht="98" customHeight="1" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="98" customHeight="1" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" ht="98" customHeight="1" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="98" customHeight="1" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="98" customHeight="1" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" ht="98" customHeight="1" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="98" customHeight="1" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="98" customHeight="1" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" ht="98" customHeight="1" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="98" customHeight="1" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" ht="98" customHeight="1" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="98" customHeight="1" spans="1:9">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="98" customHeight="1" spans="1:9">
-      <c r="A18" s="4">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2437,158 +2560,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.7777777777778" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7.44444444444444" style="7" customWidth="1"/>
-    <col min="5" max="5" width="33.7777777777778" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.7777777777778" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.2222222222222" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12" customWidth="1"/>
+    <col min="2" max="2" width="24.5555555555556" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.7777777777778" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.44444444444444" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.7777777777778" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.7777777777778" style="12" customWidth="1"/>
+    <col min="7" max="7" width="35.3333333333333" style="12" customWidth="1"/>
+    <col min="8" max="8" width="29.2222222222222" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="98" customHeight="1" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" ht="98" customHeight="1" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="98" customHeight="1" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2615,69 +2738,69 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="23.1111111111111" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.5555555555556" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.2222222222222" style="7" customWidth="1"/>
-    <col min="6" max="6" width="40.3333333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.1111111111111" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.5555555555556" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.2222222222222" style="12" customWidth="1"/>
+    <col min="6" max="6" width="40.3333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="25.1111111111111" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2698,384 +2821,384 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1111111111111" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.2222222222222" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.8888888888889" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46" style="7" customWidth="1"/>
-    <col min="7" max="8" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.3333333333333" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.8888888888889" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.1111111111111" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.2222222222222" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" style="12" customWidth="1"/>
+    <col min="6" max="6" width="42.7777777777778" style="12" customWidth="1"/>
+    <col min="7" max="8" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="9" max="9" width="36.3333333333333" style="12" customWidth="1"/>
+    <col min="10" max="10" width="24.8888888888889" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.2222222222222" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" ht="28.8" customHeight="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="118" customHeight="1" spans="1:12">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="11">
         <v>2</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" ht="127" customHeight="1" spans="1:12">
-      <c r="A3" s="9">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="14">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" ht="107" customHeight="1" spans="1:12">
-      <c r="A4" s="9">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="14">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" ht="114" customHeight="1" spans="1:12">
-      <c r="A5" s="9">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" ht="111" customHeight="1" spans="1:12">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I6" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="10">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" ht="111" customHeight="1" spans="1:12">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" ht="111" customHeight="1" spans="1:12">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G7" s="14">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K7" s="11">
         <v>1</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" ht="111" customHeight="1" spans="1:12">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" ht="111" customHeight="1" spans="1:12">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" ht="111" customHeight="1" spans="1:12">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" ht="111" customHeight="1" spans="1:12">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" ht="111" customHeight="1" spans="1:12">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" ht="111" customHeight="1" spans="1:12">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="H10" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="I10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" ht="111" customHeight="1" spans="1:12">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3100,74 +3223,74 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="27.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="30.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="27.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="28.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" ht="28.8" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="98" customHeight="1" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3176,4 +3299,286 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="25.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="25.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="24.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.4444444444444" style="5" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" ht="28.8" customHeight="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="98" customHeight="1" spans="1:10">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" ht="98" customHeight="1" spans="1:10">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" ht="98" customHeight="1" spans="1:10">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="11">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" ht="111" customHeight="1" spans="1:10">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" ht="111" customHeight="1" spans="1:10">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" ht="111" customHeight="1" spans="1:10">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+    <hyperlink ref="E3" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+    <hyperlink ref="E4" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+    <hyperlink ref="E5" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+    <hyperlink ref="E6" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+    <hyperlink ref="E7" r:id="rId1" display="/goods/goodsReplaceList" tooltip="http://120.78.128.25:8766/futureloan/member/login/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="34.0648148148148" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1574074074074" style="1"/>
+    <col min="4" max="4" width="50.4166666666667" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="11" ht="14.4"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>